--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1467974.796634188</v>
+        <v>1464218.4069244</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5915902.834835913</v>
+        <v>5915902.83483591</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3729159.296782167</v>
+        <v>3729159.296782168</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>408.9851551450806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E11" t="n">
-        <v>416.3855777583097</v>
+        <v>416.3855777583094</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.3962421322843914</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>253.9729163065506</v>
+        <v>253.9729163065503</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>27.01028645237266</v>
       </c>
       <c r="T11" t="n">
-        <v>177.5625019415269</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U11" t="n">
-        <v>243.4285649287231</v>
+        <v>243.4285649287228</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W11" t="n">
-        <v>387.7554804080989</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X11" t="n">
-        <v>401.8996191515043</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>176.8490128968189</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>157.784674766629</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1677932355145</v>
+        <v>11.80817052335597</v>
       </c>
       <c r="E13" t="n">
-        <v>155.0090040767921</v>
+        <v>155.0090040767918</v>
       </c>
       <c r="F13" t="n">
-        <v>161.8885638628833</v>
+        <v>161.888563862883</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0423489486287</v>
+        <v>150.0423489486284</v>
       </c>
       <c r="H13" t="n">
-        <v>117.9692003794992</v>
+        <v>117.9692003794989</v>
       </c>
       <c r="I13" t="n">
-        <v>49.41291406313638</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.9308534758298</v>
+        <v>129.9308534758295</v>
       </c>
       <c r="T13" t="n">
-        <v>226.7733322206494</v>
+        <v>226.7733322206491</v>
       </c>
       <c r="U13" t="n">
-        <v>262.5513459967664</v>
+        <v>262.5513459967661</v>
       </c>
       <c r="V13" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W13" t="n">
-        <v>256.2547207345933</v>
+        <v>256.254720734593</v>
       </c>
       <c r="X13" t="n">
-        <v>229.8864174849436</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.0687877472622</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D14" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>416.3855777583097</v>
+        <v>416.3855777583094</v>
       </c>
       <c r="F14" t="n">
-        <v>410.5373356599063</v>
+        <v>410.537335659906</v>
       </c>
       <c r="G14" t="n">
-        <v>382.4562447723395</v>
+        <v>27.67922967059099</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.9729163065503</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27.01028645237267</v>
       </c>
       <c r="T14" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>77.7537903182172</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W14" t="n">
-        <v>387.7554804080989</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.8490128968192</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>157.7846747666293</v>
+        <v>157.784674766629</v>
       </c>
       <c r="D16" t="n">
-        <v>151.1677932355145</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>155.0090040767921</v>
+        <v>113.7797700120232</v>
       </c>
       <c r="F16" t="n">
-        <v>161.8885638628833</v>
+        <v>161.888563862883</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0423489486287</v>
+        <v>150.0423489486284</v>
       </c>
       <c r="H16" t="n">
-        <v>11.27450617916065</v>
+        <v>117.9692003794989</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.9308534758298</v>
+        <v>129.9308534758295</v>
       </c>
       <c r="T16" t="n">
-        <v>226.7733322206494</v>
+        <v>226.7733322206491</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>262.5513459967661</v>
       </c>
       <c r="V16" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W16" t="n">
-        <v>256.2547207345933</v>
+        <v>256.254720734593</v>
       </c>
       <c r="X16" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849433</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.9851551450806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>420.7096284534329</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D17" t="n">
-        <v>418.4992673423218</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E17" t="n">
-        <v>416.3855777583097</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>383.8276718452598</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>253.9729163065506</v>
+        <v>253.9729163065503</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>27.01028645237266</v>
       </c>
       <c r="T17" t="n">
-        <v>25.49790970356448</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>243.4285649287228</v>
       </c>
       <c r="V17" t="n">
-        <v>345.9393609305337</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.8490128968192</v>
+        <v>176.8490128968189</v>
       </c>
       <c r="C19" t="n">
-        <v>157.7846747666293</v>
+        <v>157.784674766629</v>
       </c>
       <c r="D19" t="n">
-        <v>49.93330236653731</v>
+        <v>151.1677932355142</v>
       </c>
       <c r="E19" t="n">
-        <v>155.0090040767921</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>161.8885638628833</v>
+        <v>161.888563862883</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>150.0423489486284</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>33.66301773501882</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.9308534758298</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.7733322206494</v>
+        <v>226.7733322206491</v>
       </c>
       <c r="U19" t="n">
-        <v>262.5513459967664</v>
+        <v>262.5513459967661</v>
       </c>
       <c r="V19" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W19" t="n">
-        <v>256.2547207345933</v>
+        <v>256.254720734593</v>
       </c>
       <c r="X19" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849433</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.9851551450806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>420.7096284534329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.537335659906</v>
       </c>
       <c r="G20" t="n">
-        <v>382.4562447723395</v>
+        <v>382.4562447723392</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>253.9729163065503</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>27.01028645237267</v>
       </c>
       <c r="T20" t="n">
-        <v>41.35876036034834</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U20" t="n">
-        <v>243.4285649287231</v>
+        <v>243.4285649287228</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>28.14336805726455</v>
       </c>
       <c r="X20" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y20" t="n">
-        <v>391.151842828365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.8490128968192</v>
+        <v>176.8490128968189</v>
       </c>
       <c r="C22" t="n">
-        <v>157.7846747666293</v>
+        <v>157.784674766629</v>
       </c>
       <c r="D22" t="n">
-        <v>151.1677932355145</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>155.0090040767921</v>
+        <v>155.0090040767918</v>
       </c>
       <c r="F22" t="n">
-        <v>161.8885638628833</v>
+        <v>161.888563862883</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0423489486287</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>117.9692003794992</v>
+        <v>117.9692003794989</v>
       </c>
       <c r="I22" t="n">
-        <v>49.41291406313638</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.9308534758295</v>
       </c>
       <c r="T22" t="n">
-        <v>200.5965774330041</v>
+        <v>226.7733322206491</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>262.5513459967661</v>
       </c>
       <c r="V22" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W22" t="n">
-        <v>256.2547207345933</v>
+        <v>256.254720734593</v>
       </c>
       <c r="X22" t="n">
-        <v>229.8864174849436</v>
+        <v>161.8505194719839</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408.9851551450806</v>
+        <v>408.9851551450803</v>
       </c>
       <c r="C23" t="n">
-        <v>420.7096284534329</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D23" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>253.9729163065506</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.01028645237295</v>
+        <v>27.01028645237267</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U23" t="n">
-        <v>40.4806932898741</v>
+        <v>128.5952771500448</v>
       </c>
       <c r="V23" t="n">
-        <v>345.9393609305337</v>
+        <v>345.9393609305334</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X23" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y23" t="n">
-        <v>391.151842828365</v>
+        <v>391.1518428283647</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.8490128968192</v>
+        <v>176.8490128968189</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7846747666293</v>
+        <v>157.784674766629</v>
       </c>
       <c r="D25" t="n">
-        <v>151.1677932355145</v>
+        <v>151.1677932355142</v>
       </c>
       <c r="E25" t="n">
-        <v>155.0090040767921</v>
+        <v>155.0090040767918</v>
       </c>
       <c r="F25" t="n">
-        <v>161.8885638628833</v>
+        <v>161.888563862883</v>
       </c>
       <c r="G25" t="n">
-        <v>150.0423489486287</v>
+        <v>150.0423489486284</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9692003794992</v>
+        <v>117.9692003794989</v>
       </c>
       <c r="I25" t="n">
-        <v>49.41291406313638</v>
+        <v>49.4129140631361</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9308534758298</v>
+        <v>129.9308534758295</v>
       </c>
       <c r="T25" t="n">
-        <v>226.7733322206494</v>
+        <v>226.7733322206491</v>
       </c>
       <c r="U25" t="n">
-        <v>262.5513459967667</v>
+        <v>262.5513459967662</v>
       </c>
       <c r="V25" t="n">
-        <v>271.0345334132958</v>
+        <v>271.0345334132955</v>
       </c>
       <c r="W25" t="n">
-        <v>256.2547207345933</v>
+        <v>256.254720734593</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8864174849436</v>
+        <v>229.8864174849433</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440545</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>10.34404901071065</v>
       </c>
       <c r="D26" t="n">
-        <v>167.2447730130982</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>327.7798695568691</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2800,7 +2800,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>196.5908269433036</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>239.824751855628</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317441</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>359.8427394274217</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>139.4414240887039</v>
       </c>
     </row>
     <row r="33">
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>142.9822731108076</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.166913757864215</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>21.97692305979211</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3483,7 +3483,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>216.134859091358</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>115.1525362652775</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>39.86811692413197</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>49.34995949258661</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>266.0591784151871</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>64.49151368006649</v>
       </c>
       <c r="G41" t="n">
-        <v>304.6279919443828</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>70.15379004294468</v>
+        <v>81.30766987963975</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.6093084270142</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>29.71289223936033</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>170.3034090720313</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>724.3363435336621</v>
+        <v>1147.463120780738</v>
       </c>
       <c r="C11" t="n">
-        <v>724.3363435336621</v>
+        <v>1147.463120780738</v>
       </c>
       <c r="D11" t="n">
-        <v>724.3363435336621</v>
+        <v>724.7365881117266</v>
       </c>
       <c r="E11" t="n">
-        <v>303.7448508485008</v>
+        <v>304.1450954265656</v>
       </c>
       <c r="F11" t="n">
-        <v>303.7448508485008</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="G11" t="n">
-        <v>303.7448508485008</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T11" t="n">
-        <v>2180.971514880538</v>
+        <v>2134.456460444733</v>
       </c>
       <c r="U11" t="n">
-        <v>1935.084075558595</v>
+        <v>1888.569021122791</v>
       </c>
       <c r="V11" t="n">
-        <v>1935.084075558595</v>
+        <v>1539.135323213161</v>
       </c>
       <c r="W11" t="n">
-        <v>1543.411873126172</v>
+        <v>1147.463120780738</v>
       </c>
       <c r="X11" t="n">
-        <v>1137.452661862026</v>
+        <v>1147.463120780738</v>
       </c>
       <c r="Y11" t="n">
-        <v>1137.452661862026</v>
+        <v>1147.463120780738</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840.6306167675953</v>
+        <v>809.3297460517699</v>
       </c>
       <c r="C13" t="n">
-        <v>840.6306167675953</v>
+        <v>649.9512866915386</v>
       </c>
       <c r="D13" t="n">
-        <v>687.9358761256615</v>
+        <v>638.0238417184518</v>
       </c>
       <c r="E13" t="n">
-        <v>531.3611245329422</v>
+        <v>481.4490901257328</v>
       </c>
       <c r="F13" t="n">
-        <v>367.8373226512419</v>
+        <v>317.9252882440328</v>
       </c>
       <c r="G13" t="n">
-        <v>216.2793944203038</v>
+        <v>166.367360013095</v>
       </c>
       <c r="H13" t="n">
-        <v>97.11858595616322</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>358.0754347909399</v>
+        <v>358.0754347909396</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092378</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O13" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5241,10 +5241,10 @@
         <v>1202.201531143561</v>
       </c>
       <c r="X13" t="n">
-        <v>969.9930286335167</v>
+        <v>1202.201531143561</v>
       </c>
       <c r="Y13" t="n">
-        <v>840.6306167675953</v>
+        <v>987.9651126142132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1691.528193501356</v>
+        <v>1591.938559477025</v>
       </c>
       <c r="C14" t="n">
-        <v>1691.528193501356</v>
+        <v>1166.979338816992</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.801660832344</v>
+        <v>1166.979338816992</v>
       </c>
       <c r="E14" t="n">
-        <v>848.2101681471829</v>
+        <v>746.3878461318309</v>
       </c>
       <c r="F14" t="n">
-        <v>433.5259907129341</v>
+        <v>331.7036686975824</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5296,34 +5296,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T14" t="n">
-        <v>2161.739578073393</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="U14" t="n">
-        <v>2083.200395933779</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="V14" t="n">
-        <v>2083.200395933779</v>
+        <v>1983.610761909448</v>
       </c>
       <c r="W14" t="n">
-        <v>1691.528193501356</v>
+        <v>1591.938559477025</v>
       </c>
       <c r="X14" t="n">
-        <v>1691.528193501356</v>
+        <v>1591.938559477025</v>
       </c>
       <c r="Y14" t="n">
-        <v>1691.528193501356</v>
+        <v>1591.938559477025</v>
       </c>
     </row>
     <row r="15">
@@ -5336,31 +5336,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>842.324623336438</v>
+        <v>755.7566101041695</v>
       </c>
       <c r="C16" t="n">
-        <v>682.9461639762064</v>
+        <v>596.3781507439381</v>
       </c>
       <c r="D16" t="n">
-        <v>530.2514233342727</v>
+        <v>596.3781507439381</v>
       </c>
       <c r="E16" t="n">
-        <v>373.6766717415534</v>
+        <v>481.4490901257328</v>
       </c>
       <c r="F16" t="n">
-        <v>210.1528698598531</v>
+        <v>317.9252882440328</v>
       </c>
       <c r="G16" t="n">
-        <v>58.594941628915</v>
+        <v>166.367360013095</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>733.4227107706877</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M16" t="n">
-        <v>1317.603786189002</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N16" t="n">
-        <v>1887.361501150537</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498298</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5469,19 +5469,19 @@
         <v>2000.020319168465</v>
       </c>
       <c r="U16" t="n">
-        <v>2000.020319168465</v>
+        <v>1734.816939373752</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.248063195439</v>
+        <v>1461.044683400726</v>
       </c>
       <c r="W16" t="n">
-        <v>1467.404910938274</v>
+        <v>1202.201531143561</v>
       </c>
       <c r="X16" t="n">
-        <v>1235.19640842823</v>
+        <v>969.9930286335174</v>
       </c>
       <c r="Y16" t="n">
-        <v>1020.959989898882</v>
+        <v>755.7566101041695</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1572.022096862707</v>
+        <v>1539.135323213161</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.062876202674</v>
+        <v>1114.176102553128</v>
       </c>
       <c r="D17" t="n">
-        <v>724.3363435336621</v>
+        <v>691.4495698841165</v>
       </c>
       <c r="E17" t="n">
-        <v>303.7448508485008</v>
+        <v>691.4495698841165</v>
       </c>
       <c r="F17" t="n">
-        <v>303.7448508485008</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="G17" t="n">
-        <v>303.7448508485008</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T17" t="n">
-        <v>2334.572113100702</v>
+        <v>2134.456460444733</v>
       </c>
       <c r="U17" t="n">
-        <v>2334.572113100702</v>
+        <v>1888.569021122791</v>
       </c>
       <c r="V17" t="n">
-        <v>1985.138415191072</v>
+        <v>1539.135323213161</v>
       </c>
       <c r="W17" t="n">
-        <v>1985.138415191072</v>
+        <v>1539.135323213161</v>
       </c>
       <c r="X17" t="n">
-        <v>1985.138415191072</v>
+        <v>1539.135323213161</v>
       </c>
       <c r="Y17" t="n">
-        <v>1985.138415191072</v>
+        <v>1539.135323213161</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,19 +5585,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>577.1212435417243</v>
+        <v>708.3645298809481</v>
       </c>
       <c r="C19" t="n">
-        <v>417.7427841814928</v>
+        <v>548.9860705207168</v>
       </c>
       <c r="D19" t="n">
-        <v>367.3051050233743</v>
+        <v>396.2913298787832</v>
       </c>
       <c r="E19" t="n">
-        <v>210.730353430655</v>
+        <v>396.2913298787832</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895473</v>
+        <v>232.7675279970832</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>81.20959976614546</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>81.20959976614546</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>187.8344685463525</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>284.6345691139107</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>408.5053707322086</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M19" t="n">
-        <v>992.6864461505235</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2229.084291108515</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2000.020319168465</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.816939373751</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V19" t="n">
-        <v>1461.044683400725</v>
+        <v>1592.287969739948</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.20153114356</v>
+        <v>1333.444817482783</v>
       </c>
       <c r="X19" t="n">
-        <v>969.9930286335162</v>
+        <v>1101.236314972739</v>
       </c>
       <c r="Y19" t="n">
-        <v>755.756610104168</v>
+        <v>886.9998964433914</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>858.4852113729673</v>
+        <v>1104.748467446728</v>
       </c>
       <c r="C20" t="n">
-        <v>433.5259907129341</v>
+        <v>1104.748467446728</v>
       </c>
       <c r="D20" t="n">
-        <v>433.5259907129341</v>
+        <v>1104.748467446728</v>
       </c>
       <c r="E20" t="n">
-        <v>433.5259907129341</v>
+        <v>1104.748467446728</v>
       </c>
       <c r="F20" t="n">
-        <v>433.5259907129341</v>
+        <v>690.0642900124797</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>303.7448508485006</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T20" t="n">
-        <v>2318.551051831223</v>
+        <v>2134.456460444733</v>
       </c>
       <c r="U20" t="n">
-        <v>2072.66361250928</v>
+        <v>1888.569021122791</v>
       </c>
       <c r="V20" t="n">
-        <v>2072.66361250928</v>
+        <v>1539.135323213161</v>
       </c>
       <c r="W20" t="n">
-        <v>2072.66361250928</v>
+        <v>1510.707678710874</v>
       </c>
       <c r="X20" t="n">
-        <v>1666.704401245135</v>
+        <v>1104.748467446728</v>
       </c>
       <c r="Y20" t="n">
-        <v>1271.601529701332</v>
+        <v>1104.748467446728</v>
       </c>
     </row>
     <row r="21">
@@ -5825,16 +5825,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1000.009076127827</v>
+        <v>645.8443728477453</v>
       </c>
       <c r="C22" t="n">
-        <v>840.6306167675953</v>
+        <v>486.4659134875139</v>
       </c>
       <c r="D22" t="n">
-        <v>687.9358761256615</v>
+        <v>486.4659134875139</v>
       </c>
       <c r="E22" t="n">
-        <v>531.3611245329422</v>
+        <v>329.891161894795</v>
       </c>
       <c r="F22" t="n">
-        <v>367.8373226512419</v>
+        <v>166.367360013095</v>
       </c>
       <c r="G22" t="n">
-        <v>216.2793944203038</v>
+        <v>166.367360013095</v>
       </c>
       <c r="H22" t="n">
-        <v>97.1185859561632</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.434443083199</v>
+        <v>1755.480362387978</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2229.084291108514</v>
       </c>
       <c r="T22" t="n">
-        <v>2157.704771959854</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.704771959854</v>
+        <v>1734.816939373751</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.932515986828</v>
+        <v>1461.044683400725</v>
       </c>
       <c r="W22" t="n">
-        <v>1625.089363729663</v>
+        <v>1202.201531143561</v>
       </c>
       <c r="X22" t="n">
-        <v>1392.880861219619</v>
+        <v>1038.716157939537</v>
       </c>
       <c r="Y22" t="n">
-        <v>1178.64444269027</v>
+        <v>824.4797394101886</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1160.060968107875</v>
+        <v>480.7961361393162</v>
       </c>
       <c r="C23" t="n">
-        <v>735.1017474478415</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="D23" t="n">
-        <v>312.3752147788294</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="E23" t="n">
-        <v>312.3752147788294</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="F23" t="n">
-        <v>312.3752147788294</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3752147788294</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="H23" t="n">
-        <v>55.83691547928337</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="I23" t="n">
-        <v>127.036865730464</v>
+        <v>127.0368657304639</v>
       </c>
       <c r="J23" t="n">
-        <v>284.6836409739093</v>
+        <v>284.6836409739091</v>
       </c>
       <c r="K23" t="n">
-        <v>520.9552913531302</v>
+        <v>520.95529135313</v>
       </c>
       <c r="L23" t="n">
-        <v>814.0711662170309</v>
+        <v>814.0711662170306</v>
       </c>
       <c r="M23" t="n">
         <v>1140.219054385818</v>
       </c>
       <c r="N23" t="n">
-        <v>1471.644356362295</v>
+        <v>1516.505874433557</v>
       </c>
       <c r="O23" t="n">
-        <v>1784.599870903588</v>
+        <v>2207.487703489687</v>
       </c>
       <c r="P23" t="n">
-        <v>2051.700162082857</v>
+        <v>2474.587994668956</v>
       </c>
       <c r="Q23" t="n">
-        <v>2506.015124926971</v>
+        <v>2675.169189680023</v>
       </c>
       <c r="R23" t="n">
-        <v>2791.845773964169</v>
+        <v>2791.845773964164</v>
       </c>
       <c r="S23" t="n">
-        <v>2764.562656335509</v>
+        <v>2764.562656335505</v>
       </c>
       <c r="T23" t="n">
-        <v>2764.562656335509</v>
+        <v>2565.974656961161</v>
       </c>
       <c r="U23" t="n">
-        <v>2723.673067153818</v>
+        <v>2436.080437617681</v>
       </c>
       <c r="V23" t="n">
-        <v>2374.239369244188</v>
+        <v>2086.646739708051</v>
       </c>
       <c r="W23" t="n">
-        <v>2374.239369244188</v>
+        <v>1694.974537275629</v>
       </c>
       <c r="X23" t="n">
-        <v>1968.280157980042</v>
+        <v>1289.015326011483</v>
       </c>
       <c r="Y23" t="n">
-        <v>1573.177286436239</v>
+        <v>893.9124544676802</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>551.2016689967194</v>
+        <v>551.2016689967193</v>
       </c>
       <c r="C24" t="n">
-        <v>444.7452078333617</v>
+        <v>444.7452078333616</v>
       </c>
       <c r="D24" t="n">
-        <v>349.654918979915</v>
+        <v>349.6549189799148</v>
       </c>
       <c r="E24" t="n">
-        <v>255.5345043068687</v>
+        <v>255.5345043068685</v>
       </c>
       <c r="F24" t="n">
-        <v>172.1506659230303</v>
+        <v>172.1506659230302</v>
       </c>
       <c r="G24" t="n">
-        <v>87.77956551268713</v>
+        <v>87.77956551268703</v>
       </c>
       <c r="H24" t="n">
-        <v>55.83691547928337</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05365165075949</v>
+        <v>90.05365165075969</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9469909972266</v>
+        <v>183.9469909972268</v>
       </c>
       <c r="K24" t="n">
-        <v>344.4256630513969</v>
+        <v>344.425663051397</v>
       </c>
       <c r="L24" t="n">
         <v>560.2090419264192</v>
@@ -6089,7 +6089,7 @@
         <v>1496.718931529773</v>
       </c>
       <c r="Q24" t="n">
-        <v>1623.578025738008</v>
+        <v>1623.578025738007</v>
       </c>
       <c r="R24" t="n">
         <v>1685.28148016392</v>
@@ -6110,10 +6110,10 @@
         <v>953.8587850583817</v>
       </c>
       <c r="X24" t="n">
-        <v>798.9913492972618</v>
+        <v>798.9913492972616</v>
       </c>
       <c r="Y24" t="n">
-        <v>672.5055700764825</v>
+        <v>672.5055700764824</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.639440058156</v>
+        <v>1008.639440058154</v>
       </c>
       <c r="C25" t="n">
-        <v>849.2609806979244</v>
+        <v>849.2609806979224</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5662400559906</v>
+        <v>696.5662400559887</v>
       </c>
       <c r="E25" t="n">
-        <v>539.9914884632714</v>
+        <v>539.9914884632698</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4676865815711</v>
+        <v>376.4676865815698</v>
       </c>
       <c r="G25" t="n">
-        <v>224.9097583506324</v>
+        <v>224.9097583506318</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7489498864918</v>
+        <v>105.7489498864915</v>
       </c>
       <c r="I25" t="n">
-        <v>55.83691547928337</v>
+        <v>55.83691547928328</v>
       </c>
       <c r="J25" t="n">
-        <v>201.3222643461563</v>
+        <v>201.3222643461562</v>
       </c>
       <c r="K25" t="n">
-        <v>298.1223649137145</v>
+        <v>572.88081948485</v>
       </c>
       <c r="L25" t="n">
-        <v>560.0503548542</v>
+        <v>1114.961502871109</v>
       </c>
       <c r="M25" t="n">
-        <v>1150.138614373642</v>
+        <v>1245.565895209638</v>
       </c>
       <c r="N25" t="n">
-        <v>1719.896329335177</v>
+        <v>1551.70355447084</v>
       </c>
       <c r="O25" t="n">
-        <v>2257.33145990872</v>
+        <v>2089.138685044384</v>
       </c>
       <c r="P25" t="n">
-        <v>2705.607410056745</v>
+        <v>2537.414635192409</v>
       </c>
       <c r="Q25" t="n">
-        <v>2775.374681287401</v>
+        <v>2775.374681287396</v>
       </c>
       <c r="R25" t="n">
-        <v>2791.845773964169</v>
+        <v>2791.845773964164</v>
       </c>
       <c r="S25" t="n">
-        <v>2660.602487624946</v>
+        <v>2660.602487624942</v>
       </c>
       <c r="T25" t="n">
-        <v>2431.538515684897</v>
+        <v>2431.538515684892</v>
       </c>
       <c r="U25" t="n">
-        <v>2166.335135890183</v>
+        <v>2166.335135890179</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.562879917157</v>
+        <v>1892.562879917153</v>
       </c>
       <c r="W25" t="n">
-        <v>1633.719727659992</v>
+        <v>1633.719727659989</v>
       </c>
       <c r="X25" t="n">
-        <v>1401.511225149948</v>
+        <v>1401.511225149945</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.2748066206</v>
+        <v>1187.274806620597</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1336.173434662794</v>
+        <v>931.9633137017103</v>
       </c>
       <c r="C26" t="n">
-        <v>898.030961846217</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="D26" t="n">
-        <v>729.0968476915723</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E26" t="n">
-        <v>729.0968476915723</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F26" t="n">
-        <v>729.0968476915723</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G26" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6226,25 +6226,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L26" t="n">
-        <v>818.1068556527074</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1144.254743821495</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
-        <v>1788.635560339265</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2055.735851518534</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
         <v>2707.7995967108</v>
@@ -6253,25 +6253,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2781.858994217109</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U26" t="n">
-        <v>2522.788302738623</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V26" t="n">
-        <v>2160.17135267245</v>
+        <v>2590.54692589662</v>
       </c>
       <c r="W26" t="n">
-        <v>1755.315898083483</v>
+        <v>2185.691471307654</v>
       </c>
       <c r="X26" t="n">
-        <v>1336.173434662794</v>
+        <v>1766.549007886965</v>
       </c>
       <c r="Y26" t="n">
-        <v>1336.173434662794</v>
+        <v>1358.262884186618</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643631</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M27" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6363,19 +6363,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728608</v>
       </c>
       <c r="D28" t="n">
-        <v>766.5181902743841</v>
+        <v>766.5181902743836</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251208</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868771</v>
       </c>
       <c r="G28" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993955</v>
       </c>
       <c r="H28" t="n">
         <v>122.9678914787119</v>
@@ -6384,25 +6384,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K28" t="n">
-        <v>219.7541432517691</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L28" t="n">
-        <v>761.8348266380279</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M28" t="n">
-        <v>1351.92308615747</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N28" t="n">
-        <v>1921.680801119005</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O28" t="n">
-        <v>2459.115931692548</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P28" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6411,25 +6411,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S28" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T28" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U28" t="n">
-        <v>2328.569851204381</v>
+        <v>2328.56985120438</v>
       </c>
       <c r="V28" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W28" t="n">
-        <v>1769.587938661103</v>
+        <v>1769.587938661102</v>
       </c>
       <c r="X28" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y28" t="n">
-        <v>1296.776513308624</v>
+        <v>1296.776513308623</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>933.9248625570922</v>
+        <v>1367.699607398797</v>
       </c>
       <c r="C29" t="n">
-        <v>495.7823897405154</v>
+        <v>929.5571345822202</v>
       </c>
       <c r="D29" t="n">
-        <v>59.87260491495994</v>
+        <v>493.6473497566648</v>
       </c>
       <c r="E29" t="n">
         <v>59.87260491495994</v>
@@ -6466,7 +6466,7 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>960.2456682417247</v>
+        <v>960.2456682417246</v>
       </c>
       <c r="L29" t="n">
         <v>1253.361543105625</v>
@@ -6493,22 +6493,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T29" t="n">
-        <v>2795.053652875973</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U29" t="n">
-        <v>2535.982961397487</v>
+        <v>2522.788302738623</v>
       </c>
       <c r="V29" t="n">
-        <v>2173.366011331314</v>
+        <v>2522.788302738623</v>
       </c>
       <c r="W29" t="n">
-        <v>1768.510556742347</v>
+        <v>2117.932848149657</v>
       </c>
       <c r="X29" t="n">
-        <v>1768.510556742347</v>
+        <v>1698.790384728968</v>
       </c>
       <c r="Y29" t="n">
-        <v>1360.224433042</v>
+        <v>1698.790384728968</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643631</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M30" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6600,7 +6600,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
@@ -6621,25 +6621,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>219.7541432517691</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>761.8348266380279</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1351.92308615747</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N31" t="n">
-        <v>1921.680801119005</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O31" t="n">
-        <v>2459.115931692548</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P31" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6703,25 +6703,25 @@
         <v>288.7193304095858</v>
       </c>
       <c r="K32" t="n">
-        <v>524.9909807888067</v>
+        <v>524.9909807888066</v>
       </c>
       <c r="L32" t="n">
-        <v>818.1068556527074</v>
+        <v>818.1068556527073</v>
       </c>
       <c r="M32" t="n">
-        <v>1144.254743821495</v>
+        <v>1144.254743821494</v>
       </c>
       <c r="N32" t="n">
         <v>1475.680045797972</v>
       </c>
       <c r="O32" t="n">
-        <v>1788.635560339265</v>
+        <v>1788.635560339264</v>
       </c>
       <c r="P32" t="n">
-        <v>2055.735851518534</v>
+        <v>2529.559046161894</v>
       </c>
       <c r="Q32" t="n">
-        <v>2796.659337341163</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
@@ -6730,19 +6730,19 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U32" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="V32" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="W32" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="X32" t="n">
-        <v>2630.152731174844</v>
+        <v>2362.71653079642</v>
       </c>
       <c r="Y32" t="n">
         <v>2221.866607474497</v>
@@ -6776,19 +6776,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643631</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329034</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870736</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M33" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
@@ -6858,25 +6858,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>219.7541432517691</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8348266380279</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M34" t="n">
-        <v>1351.92308615747</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N34" t="n">
-        <v>1921.680801119005</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.115931692548</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P34" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>758.2694786073424</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="C35" t="n">
-        <v>320.1270057907657</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D35" t="n">
-        <v>320.1270057907657</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E35" t="n">
-        <v>320.1270057907657</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F35" t="n">
-        <v>320.1270057907657</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G35" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2338.128665266128</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2338.128665266128</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2338.128665266128</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>1975.511715199955</v>
       </c>
       <c r="W35" t="n">
-        <v>1592.855172792597</v>
+        <v>1570.656260610988</v>
       </c>
       <c r="X35" t="n">
-        <v>1592.855172792597</v>
+        <v>1151.513797190299</v>
       </c>
       <c r="Y35" t="n">
-        <v>1184.56904909225</v>
+        <v>743.2276734899522</v>
       </c>
     </row>
     <row r="36">
@@ -6995,31 +6995,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C37" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364613</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E37" t="n">
         <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1476.949143417901</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1204.922739004193</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>959.5309843376053</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>732.1113136517137</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1184.56904909225</v>
+        <v>867.0185410439991</v>
       </c>
       <c r="C38" t="n">
-        <v>1184.56904909225</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="D38" t="n">
-        <v>1184.56904909225</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V38" t="n">
-        <v>1997.710627381563</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W38" t="n">
-        <v>1592.855172792597</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X38" t="n">
-        <v>1592.855172792597</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y38" t="n">
-        <v>1184.56904909225</v>
+        <v>1293.318111528907</v>
       </c>
     </row>
     <row r="39">
@@ -7232,31 +7232,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L39" t="n">
         <v>551.5786779960906</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.081764785142</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C40" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D40" t="n">
-        <v>443.520053268367</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E40" t="n">
-        <v>273.7620495191042</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>97.05499548086041</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>295.9524490360518</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>419.8232506543497</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M40" t="n">
-        <v>550.4276429928792</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954413</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527957</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270317</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856609</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041292</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2360.327577447737</v>
+        <v>1215.34848227845</v>
       </c>
       <c r="C41" t="n">
-        <v>1922.18510463116</v>
+        <v>1215.34848227845</v>
       </c>
       <c r="D41" t="n">
-        <v>1486.275319805605</v>
+        <v>1215.34848227845</v>
       </c>
       <c r="E41" t="n">
-        <v>1052.5005749639</v>
+        <v>781.5737374367454</v>
       </c>
       <c r="F41" t="n">
-        <v>624.6331453731077</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
@@ -7414,19 +7414,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X41" t="n">
-        <v>2360.327577447737</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="Y41" t="n">
-        <v>2360.327577447737</v>
+        <v>1641.648052763358</v>
       </c>
     </row>
     <row r="42">
@@ -7469,31 +7469,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7545,58 +7545,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>758.6107344189465</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C43" t="n">
-        <v>586.0490229021715</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D43" t="n">
-        <v>420.1710301036942</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E43" t="n">
-        <v>250.4130263544315</v>
+        <v>129.3355110233383</v>
       </c>
       <c r="F43" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909393</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
         <v>1973.653814855378</v>
@@ -7605,16 +7605,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1695.267182904121</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W43" t="n">
-        <v>1423.240778490413</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1177.849023823826</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.4293531379337</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2016.215441574641</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>1578.072968758064</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>1578.072968758064</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
         <v>2043.069798152528</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X44" t="n">
-        <v>2319.861207662534</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y44" t="n">
-        <v>2319.861207662534</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7706,31 +7706,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>894.4683967363981</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>721.906685219623</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>556.0286924211457</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>386.270688671883</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>209.5636346336392</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>295.9524490360518</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>419.8232506543497</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M46" t="n">
-        <v>550.4276429928792</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N46" t="n">
-        <v>1120.185357954413</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V46" t="n">
-        <v>1928.945530822402</v>
+        <v>1831.124845221573</v>
       </c>
       <c r="W46" t="n">
-        <v>1756.921885295098</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.53013062851</v>
+        <v>1313.706686141277</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>1086.287015455385</v>
       </c>
     </row>
   </sheetData>
@@ -8850,13 +8850,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>69.27619576520601</v>
+        <v>69.27619576520578</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>45.75904403825086</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>82.54773060122693</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M19" t="n">
         <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464598</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>45.31466471844578</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>381.8447621361997</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>256.2967351848952</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,16 +9798,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>139.451705375947</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>180.4431792498108</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>456.0429799810081</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>4.217953603098778</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>4.217953603098778</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>478.6092875185454</v>
       </c>
       <c r="Q32" t="n">
-        <v>545.8002937490523</v>
+        <v>148.2963841322176</v>
       </c>
       <c r="R32" t="n">
-        <v>81.1053779017102</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>4.217953603098778</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>6.525705103702933</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334016</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>6.525705103702933</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334016</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>408.9851551450803</v>
       </c>
       <c r="C11" t="n">
-        <v>420.7096284534329</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D11" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.5373356599063</v>
+        <v>410.1410935276216</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4562447723395</v>
+        <v>382.4562447723392</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.01028645237295</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>19.03961743907391</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>345.9393609305337</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y11" t="n">
-        <v>391.151842828365</v>
+        <v>391.1518428283647</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.8490128968192</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>157.7846747666293</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>139.3596227121582</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.4129140631361</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>229.8864174849433</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.02526659679251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.9851551450806</v>
+        <v>408.9851551450803</v>
       </c>
       <c r="C14" t="n">
-        <v>420.7096284534329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>354.7770151017482</v>
       </c>
       <c r="H14" t="n">
-        <v>253.9729163065506</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.01028645237295</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>196.6021193806006</v>
       </c>
       <c r="U14" t="n">
-        <v>165.6747746105059</v>
+        <v>243.4285649287228</v>
       </c>
       <c r="V14" t="n">
-        <v>345.9393609305337</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y14" t="n">
-        <v>391.151842828365</v>
+        <v>391.1518428283647</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>176.8490128968189</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.1677932355142</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>41.22923406476852</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>106.6946942003385</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.41291406313638</v>
+        <v>49.41291406313611</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>262.5513459967664</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>408.9851551450803</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>416.3855777583094</v>
       </c>
       <c r="F17" t="n">
-        <v>410.5373356599063</v>
+        <v>26.70966381464621</v>
       </c>
       <c r="G17" t="n">
-        <v>382.4562447723395</v>
+        <v>382.4562447723392</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.01028645237295</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>171.1042096770364</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>243.4285649287231</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>387.7554804080989</v>
+        <v>387.7554804080987</v>
       </c>
       <c r="X17" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515041</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.151842828365</v>
+        <v>391.1518428283647</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>101.2344908689772</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>155.0090040767918</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0423489486287</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9692003794992</v>
+        <v>117.9692003794989</v>
       </c>
       <c r="I19" t="n">
-        <v>49.41291406313638</v>
+        <v>15.74989632811728</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>129.9308534758295</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>408.9851551450803</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>420.7096284534326</v>
       </c>
       <c r="D20" t="n">
-        <v>418.4992673423218</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E20" t="n">
-        <v>416.3855777583097</v>
+        <v>416.3855777583094</v>
       </c>
       <c r="F20" t="n">
-        <v>410.5373356599063</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>253.9729163065506</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.01028645237295</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>155.2433590202525</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>345.9393609305337</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>387.7554804080989</v>
+        <v>359.6121123508341</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>391.1518428283647</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.1677932355142</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>150.0423489486284</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>49.41291406313611</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9308534758298</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>26.17675478764525</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>262.5513459967664</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>68.03589801295936</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>418.4992673423216</v>
       </c>
       <c r="E23" t="n">
-        <v>416.3855777583097</v>
+        <v>416.3855777583094</v>
       </c>
       <c r="F23" t="n">
-        <v>410.5373356599063</v>
+        <v>410.537335659906</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4562447723395</v>
+        <v>382.4562447723392</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>253.9729163065503</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>202.947871638849</v>
+        <v>114.8332877786781</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>387.7554804080989</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>423.4169990777003</v>
       </c>
       <c r="D26" t="n">
-        <v>264.3059139642016</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>94.25670522318961</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>13.06271207227527</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>55.10829935906071</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>264.7618383746392</v>
       </c>
     </row>
     <row r="33">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25168,7 +25168,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>392.3407506494534</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>18.08478302755889</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>67.95109395691586</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>318.6085118231334</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>389.5688804691558</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>113.7438090910202</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>18.02677463308669</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>359.0972416148178</v>
       </c>
       <c r="G41" t="n">
-        <v>90.87967246293482</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>104.7861934549167</v>
+        <v>93.63231361822159</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>121.4272663530444</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679815</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.3808763442464</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>99.00273129754012</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>277442.1615510039</v>
+        <v>277442.1615510042</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>277442.1615510039</v>
+        <v>277442.1615510042</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>277442.1615510039</v>
+        <v>277442.1615510042</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>277442.1615510038</v>
+        <v>277442.1615510042</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>334289.4902151831</v>
+        <v>334289.4902151829</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>345958.8305469254</v>
+        <v>345958.8305469255</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262528.8263908999</v>
+        <v>262528.8263908998</v>
       </c>
     </row>
   </sheetData>
@@ -26319,25 +26319,25 @@
         <v>510300.0170675468</v>
       </c>
       <c r="D2" t="n">
-        <v>510300.0170675469</v>
+        <v>510300.0170675468</v>
       </c>
       <c r="E2" t="n">
-        <v>325492.2018186599</v>
+        <v>325492.2018186603</v>
       </c>
       <c r="F2" t="n">
-        <v>325492.2018186599</v>
+        <v>325492.2018186603</v>
       </c>
       <c r="G2" t="n">
-        <v>325492.2018186598</v>
+        <v>325492.2018186601</v>
       </c>
       <c r="H2" t="n">
-        <v>325492.2018186599</v>
+        <v>325492.2018186603</v>
       </c>
       <c r="I2" t="n">
-        <v>367780.9427884872</v>
+        <v>367780.942788487</v>
       </c>
       <c r="J2" t="n">
-        <v>368793.8634663579</v>
+        <v>368793.8634663578</v>
       </c>
       <c r="K2" t="n">
         <v>368793.8634663578</v>
@@ -26349,13 +26349,13 @@
         <v>306730.2640365937</v>
       </c>
       <c r="N2" t="n">
-        <v>306730.2640365938</v>
+        <v>306730.2640365937</v>
       </c>
       <c r="O2" t="n">
         <v>306730.2640365938</v>
       </c>
       <c r="P2" t="n">
-        <v>306730.2640365939</v>
+        <v>306730.2640365938</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>561576.3366986582</v>
+        <v>561576.3366986584</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28687.43758396153</v>
+        <v>28687.43758396125</v>
       </c>
       <c r="J3" t="n">
-        <v>13198.924083852</v>
+        <v>13198.9240838523</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107595.378864797</v>
+        <v>107595.3788647969</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>30168.63856793399</v>
+        <v>30168.63856793423</v>
       </c>
       <c r="F4" t="n">
-        <v>30168.638567934</v>
+        <v>30168.63856793424</v>
       </c>
       <c r="G4" t="n">
-        <v>30168.63856793399</v>
+        <v>30168.63856793423</v>
       </c>
       <c r="H4" t="n">
-        <v>30168.63856793399</v>
+        <v>30168.63856793423</v>
       </c>
       <c r="I4" t="n">
-        <v>53468.22036949158</v>
+        <v>53468.22036949162</v>
       </c>
       <c r="J4" t="n">
-        <v>53380.18087258611</v>
+        <v>53380.18087258615</v>
       </c>
       <c r="K4" t="n">
+        <v>53380.18087258615</v>
+      </c>
+      <c r="L4" t="n">
         <v>53380.18087258613</v>
       </c>
-      <c r="L4" t="n">
-        <v>53380.18087258612</v>
-      </c>
       <c r="M4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="N4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="O4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012661</v>
       </c>
       <c r="P4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012661</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693081</v>
       </c>
       <c r="F5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693081</v>
       </c>
       <c r="G5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693081</v>
       </c>
       <c r="H5" t="n">
         <v>47148.30100693079</v>
       </c>
       <c r="I5" t="n">
-        <v>53707.37759398056</v>
+        <v>53707.37759398051</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
@@ -26502,16 +26502,16 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177941.700755714</v>
+        <v>177909.7940382124</v>
       </c>
       <c r="C6" t="n">
-        <v>177941.700755714</v>
+        <v>177909.7940382124</v>
       </c>
       <c r="D6" t="n">
-        <v>177941.7007557141</v>
+        <v>177909.7940382124</v>
       </c>
       <c r="E6" t="n">
-        <v>-313401.0744548631</v>
+        <v>-313906.8473653106</v>
       </c>
       <c r="F6" t="n">
-        <v>248175.2622437951</v>
+        <v>247669.4893333479</v>
       </c>
       <c r="G6" t="n">
-        <v>248175.2622437951</v>
+        <v>247669.4893333477</v>
       </c>
       <c r="H6" t="n">
-        <v>248175.2622437951</v>
+        <v>247669.4893333479</v>
       </c>
       <c r="I6" t="n">
-        <v>231917.9072410536</v>
+        <v>231520.5669997596</v>
       </c>
       <c r="J6" t="n">
-        <v>246537.476742118</v>
+        <v>246142.7337333309</v>
       </c>
       <c r="K6" t="n">
-        <v>259736.4008259698</v>
+        <v>259341.6578171832</v>
       </c>
       <c r="L6" t="n">
-        <v>259736.4008259699</v>
+        <v>259341.6578171832</v>
       </c>
       <c r="M6" t="n">
-        <v>133898.4437120323</v>
+        <v>133344.5632688105</v>
       </c>
       <c r="N6" t="n">
-        <v>241493.8225768294</v>
+        <v>240939.9421336073</v>
       </c>
       <c r="O6" t="n">
-        <v>241493.8225768294</v>
+        <v>240939.9421336075</v>
       </c>
       <c r="P6" t="n">
-        <v>241493.8225768295</v>
+        <v>240939.9421336074</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>697.9614434910421</v>
+        <v>697.961443491041</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369992</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.879549129108</v>
+        <v>107.879549129107</v>
       </c>
       <c r="J4" t="n">
-        <v>50.4461179459571</v>
+        <v>50.44611794595824</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868693</v>
+        <v>431.7562272868688</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="V11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="W11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="X11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="C13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="D13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="E13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="T13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="U13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="V13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="W13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="X13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="C14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="D14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="E14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="T14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="U14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="V14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="W14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="X14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="C16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="D16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="T16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="U16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="V16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="W16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="X16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="C17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="D17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="E17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="X17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="C19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="D19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="U19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="V19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="W19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="X19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="C20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="D20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="E20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="T20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="U20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="V20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="W20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="X20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="C22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="D22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="E22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="T22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="U22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="V22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="W22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="X22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="C23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="E23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="T23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="U23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="V23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="W23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="X23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="C25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="D25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="E25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="F25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="G25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="H25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="I25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="T25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="U25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="V25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="W25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="X25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.05141963497805</v>
+        <v>13.05141963497834</v>
       </c>
     </row>
     <row r="26">
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32168,28 +32168,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405465</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766668</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34538,28 +34538,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R46" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
@@ -35500,13 +35500,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>167.0540751263759</v>
+        <v>167.0540751263757</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
         <v>575.5128433954892</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>170.8810658749154</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>142.0484010074725</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M19" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
         <v>159.2391669125707</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512696</v>
+        <v>422.0603989642941</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
@@ -36369,19 +36369,19 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>380.0876970179179</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>697.9614434910409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>458.9040028728423</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.5623597691681</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36451,7 +36451,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,16 +36518,16 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>264.5737272126116</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>309.2299588496992</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
@@ -36536,10 +36536,10 @@
         <v>452.8039900485101</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
@@ -36603,19 +36603,19 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>658.6502476689552</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916805</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36688,7 +36688,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>101.9958329642687</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
@@ -36773,10 +36773,10 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916805</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36925,7 +36925,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>101.9958329642687</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37010,10 +37010,10 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -37077,7 +37077,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184538</v>
+        <v>748.407561436999</v>
       </c>
       <c r="Q32" t="n">
-        <v>748.4075614369995</v>
+        <v>350.9036518201647</v>
       </c>
       <c r="R32" t="n">
-        <v>198.9605135422562</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916805</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37162,7 +37162,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>101.9958329642687</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
@@ -37247,10 +37247,10 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766673</v>
@@ -37317,7 +37317,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994717</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37560,13 +37560,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405465</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
-        <v>104.3035844648728</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
@@ -37718,13 +37718,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654051</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,7 +37794,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184533</v>
@@ -37803,7 +37803,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>254.508302565456</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>309.1157135712374</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766668</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3035844648728</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
@@ -38192,13 +38192,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654051</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
